--- a/PREGAME/1_ELICITACION/1.2 CRONOGRAMA/G3_Linea de Tiempo V1.3.xlsx
+++ b/PREGAME/1_ELICITACION/1.2 CRONOGRAMA/G3_Linea de Tiempo V1.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lizzette Zapata\OneDrive - UNIVERSIDAD DE LAS FUERZAS ARMADAS ESPE\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\UNIVERSIDAD\Aseguramiento de la Calidad del Software\Segundo Parcial\15390_G3_ACSW\PREGAME\1_ELICITACION\1.2 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D176366B-4087-4678-8027-E89E2CA615A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F04FFDB-094F-4A6E-83A0-71A6B6B0E895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caratula" sheetId="1" r:id="rId1"/>
@@ -3791,7 +3791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -3989,7 +3989,7 @@
   </sheetPr>
   <dimension ref="A1:AL47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+    <sheetView zoomScale="58" zoomScaleNormal="59" workbookViewId="0">
       <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
@@ -6096,8 +6096,8 @@
     <mergeCell ref="T4:Z4"/>
     <mergeCell ref="B4:F4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="44" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="48" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>